--- a/1 Semester.xlsx
+++ b/1 Semester.xlsx
@@ -1,14 +1,32 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="CS" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +417,145 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>USN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Maths</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Physics</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Electrical</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cicil</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CAED</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Phy Lab</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Ele Lab</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1DB21CS001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AAYUSH P NAIR</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>738</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>85</v>
+      </c>
+      <c r="J2" t="n">
+        <v>85</v>
+      </c>
+      <c r="K2" t="n">
+        <v>94</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91</v>
+      </c>
+      <c r="M2" t="n">
+        <v>87</v>
+      </c>
+      <c r="N2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>